--- a/Documentation/hyperparameters table.xlsx
+++ b/Documentation/hyperparameters table.xlsx
@@ -633,7 +633,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -653,6 +653,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -968,10 +971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C92"/>
+  <dimension ref="A3:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1487,55 +1490,69 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="2"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="2"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="2"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="2"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="2"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="2"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F97" s="9"/>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F98" s="9"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="F97:F98"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A48" r:id="rId1" display="https://keras.io/activations/"/>
     <hyperlink ref="A54" r:id="rId2" display="https://keras.io/activations/"/>
